--- a/results/mp/tinybert/corona/confidence/168/0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -52,12 +55,12 @@
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -67,79 +70,85 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
@@ -148,55 +157,103 @@
     <t>share</t>
   </si>
   <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>_</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>of</t>
+    <t>food</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>corona</t>
@@ -557,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +622,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,16 +704,16 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7207792207792207</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.407725321888412</v>
+        <v>0.36</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2906976744186047</v>
+        <v>0.2926356589147287</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>61</v>
+        <v>365</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.275</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2454545454545455</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8431372549019608</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2148148148148148</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8392857142857143</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,21 +1075,45 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>324</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1070,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.72</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1096,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1122,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1148,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7586206896551724</v>
+        <v>0.6875</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1174,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7575757575757576</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1200,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7534246575342466</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L18">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1226,47 +1307,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19">
+        <v>0.648936170212766</v>
+      </c>
+      <c r="L19">
+        <v>61</v>
+      </c>
+      <c r="M19">
+        <v>61</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>33</v>
-      </c>
-      <c r="K19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L19">
-        <v>16</v>
-      </c>
-      <c r="M19">
-        <v>16</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1278,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6009389671361502</v>
+        <v>0.5718015665796344</v>
       </c>
       <c r="L21">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="M21">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1304,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5813953488372093</v>
+        <v>0.5625</v>
       </c>
       <c r="L22">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1330,21 +1411,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5357142857142857</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1356,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5347222222222222</v>
+        <v>0.5264705882352941</v>
       </c>
       <c r="L24">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="M24">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1382,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>67</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5333333333333333</v>
+        <v>0.5220338983050847</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1408,47 +1489,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="L26">
+        <v>33</v>
+      </c>
+      <c r="M26">
+        <v>33</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>40</v>
-      </c>
-      <c r="K26">
-        <v>0.5</v>
-      </c>
-      <c r="L26">
-        <v>46</v>
-      </c>
-      <c r="M26">
-        <v>46</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4857142857142857</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1460,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4324324324324325</v>
+        <v>0.4142259414225942</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1486,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.3684210526315789</v>
+        <v>0.40625</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1512,21 +1593,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.08080808080808081</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1538,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>182</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.07894736842105263</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1564,21 +1645,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>420</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.06306306306306306</v>
+        <v>0.2327586206896552</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1590,21 +1671,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>208</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.05853658536585366</v>
+        <v>0.1225961538461538</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1616,371 +1697,839 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.05459057071960298</v>
+        <v>0.1079136690647482</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.0539906103286385</v>
+        <v>0.07991803278688525</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>403</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.03891891891891892</v>
+        <v>0.07913669064748201</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N36">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>889</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.03386004514672687</v>
+        <v>0.0658882402001668</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>428</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.03222918531781558</v>
+        <v>0.06215722120658135</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N38">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1081</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.02816901408450704</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.02767749699157641</v>
+        <v>0.06085192697768763</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="N40">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O40">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>808</v>
+        <v>926</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.02149973780807551</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="L41">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M41">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N41">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1866</v>
+        <v>840</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.01817264008076729</v>
+        <v>0.05444444444444444</v>
       </c>
       <c r="L42">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M42">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N42">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="O42">
-        <v>0.18</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>1945</v>
+        <v>851</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.01789473684210526</v>
+        <v>0.04686035613870666</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="N43">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="O43">
-        <v>0.15</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>933</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.01782633697527315</v>
+        <v>0.04595588235294118</v>
       </c>
       <c r="L44">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N44">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1708</v>
+        <v>519</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.01705756929637527</v>
+        <v>0.04525455688246386</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>922</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.012853470437018</v>
+        <v>0.04508670520231214</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N46">
-        <v>0.71</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0.29</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1536</v>
+        <v>826</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.01007556675062972</v>
+        <v>0.04465290806754221</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="M47">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="N47">
-        <v>0.64</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O47">
-        <v>0.36</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>1572</v>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48">
+        <v>0.04142739950779328</v>
+      </c>
+      <c r="L48">
+        <v>101</v>
+      </c>
+      <c r="M48">
+        <v>108</v>
+      </c>
+      <c r="N48">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O48">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49">
+        <v>0.03661327231121281</v>
+      </c>
+      <c r="L49">
+        <v>32</v>
+      </c>
+      <c r="M49">
+        <v>36</v>
+      </c>
+      <c r="N49">
+        <v>0.89</v>
+      </c>
+      <c r="O49">
+        <v>0.11</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50">
+        <v>0.03258145363408521</v>
+      </c>
+      <c r="L50">
+        <v>26</v>
+      </c>
+      <c r="M50">
+        <v>29</v>
+      </c>
+      <c r="N50">
+        <v>0.9</v>
+      </c>
+      <c r="O50">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51">
+        <v>0.0315712187958884</v>
+      </c>
+      <c r="L51">
+        <v>43</v>
+      </c>
+      <c r="M51">
+        <v>44</v>
+      </c>
+      <c r="N51">
+        <v>0.98</v>
+      </c>
+      <c r="O51">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52">
+        <v>0.0313064419024684</v>
+      </c>
+      <c r="L52">
+        <v>156</v>
+      </c>
+      <c r="M52">
+        <v>169</v>
+      </c>
+      <c r="N52">
+        <v>0.92</v>
+      </c>
+      <c r="O52">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53">
+        <v>0.03121045972163644</v>
+      </c>
+      <c r="L53">
+        <v>74</v>
+      </c>
+      <c r="M53">
+        <v>82</v>
+      </c>
+      <c r="N53">
+        <v>0.9</v>
+      </c>
+      <c r="O53">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K54">
+        <v>0.03032659409020218</v>
+      </c>
+      <c r="L54">
+        <v>156</v>
+      </c>
+      <c r="M54">
+        <v>177</v>
+      </c>
+      <c r="N54">
+        <v>0.88</v>
+      </c>
+      <c r="O54">
+        <v>0.12</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K55">
+        <v>0.03014553014553015</v>
+      </c>
+      <c r="L55">
+        <v>29</v>
+      </c>
+      <c r="M55">
+        <v>35</v>
+      </c>
+      <c r="N55">
+        <v>0.83</v>
+      </c>
+      <c r="O55">
+        <v>0.17</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56">
+        <v>0.0296127562642369</v>
+      </c>
+      <c r="L56">
+        <v>26</v>
+      </c>
+      <c r="M56">
+        <v>30</v>
+      </c>
+      <c r="N56">
+        <v>0.87</v>
+      </c>
+      <c r="O56">
+        <v>0.13</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57">
+        <v>0.02959094865100087</v>
+      </c>
+      <c r="L57">
+        <v>68</v>
+      </c>
+      <c r="M57">
+        <v>79</v>
+      </c>
+      <c r="N57">
+        <v>0.86</v>
+      </c>
+      <c r="O57">
+        <v>0.14</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K58">
+        <v>0.02948801036941024</v>
+      </c>
+      <c r="L58">
+        <v>91</v>
+      </c>
+      <c r="M58">
+        <v>112</v>
+      </c>
+      <c r="N58">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O58">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K59">
+        <v>0.02892848877574635</v>
+      </c>
+      <c r="L59">
+        <v>125</v>
+      </c>
+      <c r="M59">
+        <v>132</v>
+      </c>
+      <c r="N59">
+        <v>0.95</v>
+      </c>
+      <c r="O59">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K60">
+        <v>0.02692307692307692</v>
+      </c>
+      <c r="L60">
+        <v>28</v>
+      </c>
+      <c r="M60">
+        <v>28</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K61">
+        <v>0.02643171806167401</v>
+      </c>
+      <c r="L61">
+        <v>30</v>
+      </c>
+      <c r="M61">
+        <v>35</v>
+      </c>
+      <c r="N61">
+        <v>0.86</v>
+      </c>
+      <c r="O61">
+        <v>0.14</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K62">
+        <v>0.02568093385214008</v>
+      </c>
+      <c r="L62">
+        <v>33</v>
+      </c>
+      <c r="M62">
+        <v>37</v>
+      </c>
+      <c r="N62">
+        <v>0.89</v>
+      </c>
+      <c r="O62">
+        <v>0.11</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K63">
+        <v>0.02322340919647004</v>
+      </c>
+      <c r="L63">
+        <v>50</v>
+      </c>
+      <c r="M63">
+        <v>55</v>
+      </c>
+      <c r="N63">
+        <v>0.91</v>
+      </c>
+      <c r="O63">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K64">
+        <v>0.02132998745294856</v>
+      </c>
+      <c r="L64">
+        <v>51</v>
+      </c>
+      <c r="M64">
+        <v>54</v>
+      </c>
+      <c r="N64">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O64">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K65">
+        <v>0.01885014137606032</v>
+      </c>
+      <c r="L65">
+        <v>60</v>
+      </c>
+      <c r="M65">
+        <v>78</v>
+      </c>
+      <c r="N65">
+        <v>0.77</v>
+      </c>
+      <c r="O65">
+        <v>0.23</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>3123</v>
       </c>
     </row>
   </sheetData>
